--- a/TCT/Test.xlsx
+++ b/TCT/Test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvanausdeln\Dropbox (Blume Global)\Documents\UiPath\PortTerminalScraping\WBCTLA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvanausdeln\Dropbox (Blume Global)\Documents\UiPath\PortTerminalScraping\TCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>NYKU0763383</t>
   </si>
@@ -138,189 +138,6 @@
   </si>
   <si>
     <t>RTMV06127500</t>
-  </si>
-  <si>
-    <t>ONEU0333306</t>
-  </si>
-  <si>
-    <t>CHI1095405-CHI7386585</t>
-  </si>
-  <si>
-    <t>MOTU6723444</t>
-  </si>
-  <si>
-    <t>CHI1095486-CHI7386886</t>
-  </si>
-  <si>
-    <t>TEMU5271654</t>
-  </si>
-  <si>
-    <t>CHI1095727-CHI7388309</t>
-  </si>
-  <si>
-    <t>RTMV05725800</t>
-  </si>
-  <si>
-    <t>KKTU7991938</t>
-  </si>
-  <si>
-    <t>CHI1095727-CHI7388307</t>
-  </si>
-  <si>
-    <t>TRLU7123299</t>
-  </si>
-  <si>
-    <t>CHI1095690-CHI7388246</t>
-  </si>
-  <si>
-    <t>MOTU0783810</t>
-  </si>
-  <si>
-    <t>CHI1095690-CHI7388247</t>
-  </si>
-  <si>
-    <t>TCKU2937613</t>
-  </si>
-  <si>
-    <t>NYK DAEDALUS</t>
-  </si>
-  <si>
-    <t>CHI1095569-CHI7387609</t>
-  </si>
-  <si>
-    <t>RIXV00062600</t>
-  </si>
-  <si>
-    <t>TCNU6850012</t>
-  </si>
-  <si>
-    <t>CHI1095389-CHI7386470</t>
-  </si>
-  <si>
-    <t>NYKU4796976</t>
-  </si>
-  <si>
-    <t>CHI1095405-CHI7386591</t>
-  </si>
-  <si>
-    <t>HAMV16096800</t>
-  </si>
-  <si>
-    <t>NYKU5100188</t>
-  </si>
-  <si>
-    <t>CHI1095405-CHI7386590</t>
-  </si>
-  <si>
-    <t>TCLU8542351</t>
-  </si>
-  <si>
-    <t>CHI1095389-CHI7386471</t>
-  </si>
-  <si>
-    <t>GOTV02276400</t>
-  </si>
-  <si>
-    <t>NYKU4759592</t>
-  </si>
-  <si>
-    <t>CHI1095389-CHI7386467</t>
-  </si>
-  <si>
-    <t>NYKU5284362</t>
-  </si>
-  <si>
-    <t>CHI1095405-CHI7386592</t>
-  </si>
-  <si>
-    <t>ONEU0026676</t>
-  </si>
-  <si>
-    <t>CHI1095389-CHI7386468</t>
-  </si>
-  <si>
-    <t>FDCU0445249</t>
-  </si>
-  <si>
-    <t>CHI1095405-CHI7386586</t>
-  </si>
-  <si>
-    <t>SEGU4460174</t>
-  </si>
-  <si>
-    <t>CHI1095418-CHI7386583</t>
-  </si>
-  <si>
-    <t>NYKU3667212</t>
-  </si>
-  <si>
-    <t>CHI1095727-CHI7388310</t>
-  </si>
-  <si>
-    <t>RTMV06124900</t>
-  </si>
-  <si>
-    <t>NYKU3709540</t>
-  </si>
-  <si>
-    <t>CHI1095727-CHI7388305</t>
-  </si>
-  <si>
-    <t>TCLU1580766</t>
-  </si>
-  <si>
-    <t>CHI1095760-CHI7388314</t>
-  </si>
-  <si>
-    <t>RTMV08211800</t>
-  </si>
-  <si>
-    <t>TCNU4048158</t>
-  </si>
-  <si>
-    <t>CHI1095765-CHI7388312</t>
-  </si>
-  <si>
-    <t>RTMV07292900</t>
-  </si>
-  <si>
-    <t>TCLU8929572</t>
-  </si>
-  <si>
-    <t>CHI1095486-CHI7386887</t>
-  </si>
-  <si>
-    <t>UETU5337423</t>
-  </si>
-  <si>
-    <t>CHI1095690-CHI7388248</t>
-  </si>
-  <si>
-    <t>FSCU8630108</t>
-  </si>
-  <si>
-    <t>CHI1095690-CHI7388252</t>
-  </si>
-  <si>
-    <t>TRHU3770540</t>
-  </si>
-  <si>
-    <t>CHI1095727-CHI7388306</t>
-  </si>
-  <si>
-    <t>NYKU3233535</t>
-  </si>
-  <si>
-    <t>CHI1095727-CHI7388308</t>
-  </si>
-  <si>
-    <t>NYKU3937719</t>
-  </si>
-  <si>
-    <t>CHI1095400-CHI7386593</t>
-  </si>
-  <si>
-    <t>HAMV17135300</t>
   </si>
   <si>
     <t>Equipment Number</t>
@@ -656,32 +473,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="A16" sqref="A16:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -920,448 +737,6 @@
       </c>
       <c r="F15" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>114</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17">
-        <v>58</v>
-      </c>
-      <c r="D17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>114</v>
-      </c>
-      <c r="D18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>114</v>
-      </c>
-      <c r="D19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20">
-        <v>58</v>
-      </c>
-      <c r="D20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21">
-        <v>58</v>
-      </c>
-      <c r="D21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22">
-        <v>61</v>
-      </c>
-      <c r="D22" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>114</v>
-      </c>
-      <c r="D23" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>114</v>
-      </c>
-      <c r="D24" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>114</v>
-      </c>
-      <c r="D25" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>114</v>
-      </c>
-      <c r="D26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>114</v>
-      </c>
-      <c r="D27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>114</v>
-      </c>
-      <c r="D28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>114</v>
-      </c>
-      <c r="D29" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>114</v>
-      </c>
-      <c r="D30" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>114</v>
-      </c>
-      <c r="D31" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>114</v>
-      </c>
-      <c r="D32" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>114</v>
-      </c>
-      <c r="D33" t="s">
-        <v>79</v>
-      </c>
-      <c r="F33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>114</v>
-      </c>
-      <c r="D34" t="s">
-        <v>81</v>
-      </c>
-      <c r="F34" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>114</v>
-      </c>
-      <c r="D35" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>86</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36">
-        <v>58</v>
-      </c>
-      <c r="D36" t="s">
-        <v>87</v>
-      </c>
-      <c r="F36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>88</v>
-      </c>
-      <c r="B37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37">
-        <v>58</v>
-      </c>
-      <c r="D37" t="s">
-        <v>89</v>
-      </c>
-      <c r="F37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>90</v>
-      </c>
-      <c r="B38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38">
-        <v>58</v>
-      </c>
-      <c r="D38" t="s">
-        <v>91</v>
-      </c>
-      <c r="F38" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>92</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>114</v>
-      </c>
-      <c r="D39" t="s">
-        <v>93</v>
-      </c>
-      <c r="F39" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>94</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>114</v>
-      </c>
-      <c r="D40" t="s">
-        <v>95</v>
-      </c>
-      <c r="F40" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>96</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>114</v>
-      </c>
-      <c r="D41" t="s">
-        <v>97</v>
-      </c>
-      <c r="F41" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/TCT/Test.xlsx
+++ b/TCT/Test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvanausdeln\Dropbox (Blume Global)\Documents\UiPath\PortTerminalScraping\TCT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Blume-proj\PortTerminalScraping\TCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="123">
   <si>
     <t>NYKU0763383</t>
   </si>
@@ -156,6 +156,243 @@
   </si>
   <si>
     <t>BOLNumber</t>
+  </si>
+  <si>
+    <t>MEDUTS022910</t>
+  </si>
+  <si>
+    <t>7032010351</t>
+  </si>
+  <si>
+    <t>DJSEAA4147560</t>
+  </si>
+  <si>
+    <t>00914</t>
+  </si>
+  <si>
+    <t>MSC CHANNE</t>
+  </si>
+  <si>
+    <t>MEDU4314975</t>
+  </si>
+  <si>
+    <t>MY606417</t>
+  </si>
+  <si>
+    <t>7032019968</t>
+  </si>
+  <si>
+    <t>916</t>
+  </si>
+  <si>
+    <t>ANNA MAERSK</t>
+  </si>
+  <si>
+    <t>FSCU7725390</t>
+  </si>
+  <si>
+    <t>G1972157</t>
+  </si>
+  <si>
+    <t>7032017524</t>
+  </si>
+  <si>
+    <t>DJSEAA4140600</t>
+  </si>
+  <si>
+    <t>CAXU4348385</t>
+  </si>
+  <si>
+    <t>DJSEAA4140612</t>
+  </si>
+  <si>
+    <t>TTNU4958280</t>
+  </si>
+  <si>
+    <t>DJSEAA4140604</t>
+  </si>
+  <si>
+    <t>GLDU4237802</t>
+  </si>
+  <si>
+    <t>DJSEAA4140609</t>
+  </si>
+  <si>
+    <t>INBU5265790</t>
+  </si>
+  <si>
+    <t>BKK80021467</t>
+  </si>
+  <si>
+    <t>7032021559</t>
+  </si>
+  <si>
+    <t>880N</t>
+  </si>
+  <si>
+    <t>GSL AFRICA</t>
+  </si>
+  <si>
+    <t>TLLU4933090</t>
+  </si>
+  <si>
+    <t>BKK80021268</t>
+  </si>
+  <si>
+    <t>7032014746</t>
+  </si>
+  <si>
+    <t>915N</t>
+  </si>
+  <si>
+    <t>MAERSK STRALSUND</t>
+  </si>
+  <si>
+    <t>TCKU6644608</t>
+  </si>
+  <si>
+    <t>BKK80020798</t>
+  </si>
+  <si>
+    <t>7032014745</t>
+  </si>
+  <si>
+    <t>TCKU6646690</t>
+  </si>
+  <si>
+    <t>MEDUL1275451</t>
+  </si>
+  <si>
+    <t>7180861043</t>
+  </si>
+  <si>
+    <t>DJPDXA4128356</t>
+  </si>
+  <si>
+    <t>MEDU7839946</t>
+  </si>
+  <si>
+    <t>SNH4322982</t>
+  </si>
+  <si>
+    <t>7032027531</t>
+  </si>
+  <si>
+    <t>DJSEAA4114211</t>
+  </si>
+  <si>
+    <t>00915</t>
+  </si>
+  <si>
+    <t>TCNU4341736</t>
+  </si>
+  <si>
+    <t>MEDUVN814763</t>
+  </si>
+  <si>
+    <t>7032038758</t>
+  </si>
+  <si>
+    <t>MSC SOPHIE</t>
+  </si>
+  <si>
+    <t>TGHU4814445</t>
+  </si>
+  <si>
+    <t>BKK80020621</t>
+  </si>
+  <si>
+    <t>7032021561</t>
+  </si>
+  <si>
+    <t>002W</t>
+  </si>
+  <si>
+    <t>ZCSU7002495</t>
+  </si>
+  <si>
+    <t>DJSEAA4114220</t>
+  </si>
+  <si>
+    <t>TGBU5412768</t>
+  </si>
+  <si>
+    <t>BKK80021179</t>
+  </si>
+  <si>
+    <t>7032014736</t>
+  </si>
+  <si>
+    <t>TGBU7090233</t>
+  </si>
+  <si>
+    <t>SUDUN9998AGWIPV7</t>
+  </si>
+  <si>
+    <t>7032039423</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>MSKU0602404</t>
+  </si>
+  <si>
+    <t>BKK80020619</t>
+  </si>
+  <si>
+    <t>7032021560</t>
+  </si>
+  <si>
+    <t>TCNU8937087</t>
+  </si>
+  <si>
+    <t>SEL785312</t>
+  </si>
+  <si>
+    <t>7032031778</t>
+  </si>
+  <si>
+    <t>DJSEAA4141113</t>
+  </si>
+  <si>
+    <t>00002</t>
+  </si>
+  <si>
+    <t>TTNU5465267</t>
+  </si>
+  <si>
+    <t>MEDULH867292</t>
+  </si>
+  <si>
+    <t>7032022235</t>
+  </si>
+  <si>
+    <t>915</t>
+  </si>
+  <si>
+    <t>MSC MAXINE</t>
+  </si>
+  <si>
+    <t>TRIU8666357</t>
+  </si>
+  <si>
+    <t>NGB9374384</t>
+  </si>
+  <si>
+    <t>7032022907</t>
+  </si>
+  <si>
+    <t>DJSEAA4064931</t>
+  </si>
+  <si>
+    <t>00003</t>
+  </si>
+  <si>
+    <t>NORTHERN JASPER</t>
+  </si>
+  <si>
+    <t>ZIMU3032314</t>
   </si>
 </sst>
 </file>
@@ -473,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:F41"/>
+      <selection activeCell="A16" sqref="A16:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,6 +976,406 @@
         <v>37</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TCT/Test.xlsx
+++ b/TCT/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -30,21 +30,6 @@
   </si>
   <si>
     <t>BOLNumber</t>
-  </si>
-  <si>
-    <t>CHUU2007081</t>
-  </si>
-  <si>
-    <t>BALEARES</t>
-  </si>
-  <si>
-    <t>003E</t>
-  </si>
-  <si>
-    <t>7032029183</t>
-  </si>
-  <si>
-    <t>WWSUBR003NGTW001</t>
   </si>
 </sst>
 </file>
@@ -89,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -115,26 +100,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/TCT/Test.xlsx
+++ b/TCT/Test.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvanausdeln\OneDrive - Blume Global\UiPath\PortTerminalScraping\TCT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17730"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -30,16 +37,63 @@
   </si>
   <si>
     <t>BOLNumber</t>
+  </si>
+  <si>
+    <t>GESU3595289</t>
+  </si>
+  <si>
+    <t>WESTWOOD COLUMBIA</t>
+  </si>
+  <si>
+    <t>109E</t>
+  </si>
+  <si>
+    <t>MULTI</t>
+  </si>
+  <si>
+    <t>BMOU2705748</t>
+  </si>
+  <si>
+    <t>BALEARES</t>
+  </si>
+  <si>
+    <t>WWSUBR005NGTW042</t>
+  </si>
+  <si>
+    <t>BMOU2803256</t>
+  </si>
+  <si>
+    <t>WESTWOOD OLYMPIA</t>
+  </si>
+  <si>
+    <t>094E</t>
+  </si>
+  <si>
+    <t>LY094NGTW043</t>
+  </si>
+  <si>
+    <t>GESU3334480</t>
+  </si>
+  <si>
+    <t>MOL CREATION</t>
+  </si>
+  <si>
+    <t>069E</t>
+  </si>
+  <si>
+    <t>9076908164-01</t>
+  </si>
+  <si>
+    <t>HLCUSHA1907JHVR0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -51,7 +105,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -69,18 +123,294 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -100,7 +430,101 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>7200360073</v>
+      </c>
+      <c r="E2">
+        <v>7200360073</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>7200361046</v>
+      </c>
+      <c r="E3">
+        <v>7200361046</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>7032096578</v>
+      </c>
+      <c r="E4">
+        <v>7032096578</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>